--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3874.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3874.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.716968197230824</v>
+        <v>3.066174745559692</v>
       </c>
       <c r="B1">
-        <v>2.771014747739119</v>
+        <v>2.693422079086304</v>
       </c>
       <c r="C1">
-        <v>2.983000894532847</v>
+        <v>2.899336814880371</v>
       </c>
       <c r="D1">
-        <v>3.395143458876932</v>
+        <v>3.727420806884766</v>
       </c>
       <c r="E1">
-        <v>2.171085838356027</v>
+        <v>5.116219043731689</v>
       </c>
     </row>
   </sheetData>
